--- a/biology/Botanique/Bosques_de_Palermo/Bosques_de_Palermo.xlsx
+++ b/biology/Botanique/Bosques_de_Palermo/Bosques_de_Palermo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Bosques de Palermo (en français : les bois de Palermo), officiellement le Parque Tres de Febrero (en français : le parc du 3-Février), sont une grande zone verte de 25 hectares située dans le quartier de Palermo, à Buenos Aires, capitale de l'Argentine. Localisés entre les avenues « Avenida Casares » et « Avenida del Libertador », ils sont remarquables pour leurs arbres, leurs lacs et leurs roseraies. L'architecte franco-argentin Carlos Thays participa à la mise en forme de ce grand parc.
@@ -515,7 +527,9 @@
           <t>Accès en métro</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Depuis le centre-ville, on y accède par la ligne de métro , station Plaza Italia sous la place de même nom. En descendant l’Avenida General Sarmiento vers le nord-nord-est, on croise d'abord l'Avenida del Libertador, juste avant d'y pénétrer (les Bosques de Palermo sont à 600 mètres de la station de métro).</t>
         </is>
